--- a/Data/statistics_results.xlsx
+++ b/Data/statistics_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\DataMohammed\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0735300B-36B0-4B64-B034-E6E71B90DB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3727FB-F517-4FEC-84F2-763F604BB0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,6 +174,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>13935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3257E5-EA4D-FC1C-5947-8AD62AC848CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="2377441"/>
+          <a:ext cx="5257800" cy="3244814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5B4AA8-52D9-CC70-A23F-A025F369AF72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5425440" y="2324101"/>
+          <a:ext cx="5288280" cy="3263624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>143127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365EDFA5-47F9-13BE-42A4-4C799EFA2654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10904220" y="2453641"/>
+          <a:ext cx="5059680" cy="3122546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -900,5 +1055,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/statistics_results.xlsx
+++ b/Data/statistics_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\DataMohammed\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3727FB-F517-4FEC-84F2-763F604BB0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3035FBC6-E16D-4797-9E33-E821C30A56D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,161 +174,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>99061</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>13935</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3257E5-EA4D-FC1C-5947-8AD62AC848CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30480" y="2377441"/>
-          <a:ext cx="5257800" cy="3244814"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>45721</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>154665</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5B4AA8-52D9-CC70-A23F-A025F369AF72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5425440" y="2324101"/>
-          <a:ext cx="5288280" cy="3263624"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>143127</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365EDFA5-47F9-13BE-42A4-4C799EFA2654}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10904220" y="2453641"/>
-          <a:ext cx="5059680" cy="3122546"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
@@ -1055,6 +900,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/statistics_results.xlsx
+++ b/Data/statistics_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\DataMohammed\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3035FBC6-E16D-4797-9E33-E821C30A56D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B97D809-5807-4E08-A40E-5F72C2333FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>variable_name</t>
   </si>
@@ -55,25 +55,22 @@
     <t>happiness</t>
   </si>
   <si>
-    <t>1 - 4</t>
+    <t>-1 - 4</t>
   </si>
   <si>
     <t>gen_trust</t>
   </si>
   <si>
-    <t>1 - 2</t>
+    <t>-1 - 2</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>1 - 5</t>
-  </si>
-  <si>
     <t>free_choice</t>
   </si>
   <si>
-    <t>1 - 10</t>
+    <t>-1 - 10</t>
   </si>
   <si>
     <t>life_satis</t>
@@ -85,7 +82,7 @@
     <t>sign_pet</t>
   </si>
   <si>
-    <t>1 - 3</t>
+    <t>-1 - 3</t>
   </si>
   <si>
     <t>join_boycott</t>
@@ -100,10 +97,25 @@
     <t>religiosity</t>
   </si>
   <si>
-    <t>1 - 8</t>
+    <t>age</t>
+  </si>
+  <si>
+    <t>-1 - 99</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
   <si>
     <t>employment</t>
+  </si>
+  <si>
+    <t>-1 - 8</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>14.2857141494751 - 56.1576347351074</t>
   </si>
 </sst>
 </file>
@@ -127,18 +139,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,10 +159,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -463,54 +468,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -519,31 +513,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2.7139184722732281</v>
+        <v>2.7762020828717038</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>0.8398760065763573</v>
+        <v>0.69374296876209651</v>
       </c>
       <c r="F2">
-        <v>0.91644749253645585</v>
+        <v>0.83291234158349248</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.11974003917467919</v>
+        <v>-0.84815900205473838</v>
       </c>
       <c r="J2">
-        <v>1.900186231233699</v>
+        <v>4.2238062083046746</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -551,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>1.8527359529930221</v>
+        <v>1.777088411256371</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -560,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0.1256234816863343</v>
+        <v>0.31461462735793522</v>
       </c>
       <c r="F3">
-        <v>0.35443403009069868</v>
+        <v>0.56090518571139558</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -572,10 +566,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1.9907836754752599</v>
+        <v>-3.2130142434026641</v>
       </c>
       <c r="J3">
-        <v>4.9632196425387853</v>
+        <v>14.74165047676652</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -583,319 +577,415 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2.4285714285714279</v>
+        <v>2.8007976955462</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>0.79458381442216863</v>
+        <v>0.79773610466007538</v>
       </c>
       <c r="F4">
-        <v>0.89139430917084539</v>
+        <v>0.89316073842286381</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.3526847617411904</v>
+        <v>-0.38193465496902917</v>
       </c>
       <c r="J4">
-        <v>2.6020381328647288</v>
+        <v>2.6216713178438988</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>6.3966213734851269</v>
+        <v>6.5582391609424624</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>5.4245587496826104</v>
+        <v>6.2548994254392722</v>
       </c>
       <c r="F5">
-        <v>2.3290682149053969</v>
+        <v>2.5009796931281292</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>-0.53824654551748241</v>
+        <v>-0.66176965241710795</v>
       </c>
       <c r="J5">
-        <v>2.711793941159947</v>
+        <v>3.253014268622215</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>5.3881748071979434</v>
+        <v>5.8571534086712456</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>7.0707932508419447</v>
+        <v>6.2917517131312009</v>
       </c>
       <c r="F6">
-        <v>2.6590963222196269</v>
+        <v>2.5083364433686319</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>-0.14269300803626969</v>
+        <v>-0.21133266332744349</v>
       </c>
       <c r="J6">
-        <v>2.022352446026094</v>
+        <v>2.4152113528664079</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>4.8501652589056192</v>
+        <v>5.25969421670729</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>6.773279730210688</v>
+        <v>5.9269401044509653</v>
       </c>
       <c r="F7">
-        <v>2.6025525412968489</v>
+        <v>2.4345307770597122</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>7.9638996494817718E-2</v>
+        <v>-3.619321140162586E-2</v>
       </c>
       <c r="J7">
-        <v>2.005179529272572</v>
+        <v>2.3957760446242649</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>1.216781150749686</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.57547254561601957</v>
+      </c>
+      <c r="F8">
+        <v>0.7585990677663792</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8">
-        <v>2.8898273962541321</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>0.16640272552396751</v>
-      </c>
-      <c r="F8">
-        <v>0.40792490181891011</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-3.814390468330938</v>
+        <v>-1.6512997480294851E-2</v>
       </c>
       <c r="J8">
-        <v>16.6977619989615</v>
+        <v>5.5616420376559024</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>2.8931325743665082</v>
+        <v>1.211980205332742</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0.16160969108767589</v>
+        <v>0.5492404203497584</v>
       </c>
       <c r="F9">
-        <v>0.40200707840494038</v>
+        <v>0.74110756327928429</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-3.883484956924101</v>
+        <v>-2.8599224076157029E-4</v>
       </c>
       <c r="J9">
-        <v>17.265325365420878</v>
+        <v>5.7598751124209189</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
-        <v>2.911494674990819</v>
+        <v>1.2829603368047859</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0.13727781655870219</v>
+        <v>0.59691083983608095</v>
       </c>
       <c r="F10">
-        <v>0.37051021113958821</v>
+        <v>0.77260005166714874</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>-4.3482361379146139</v>
+        <v>0.17979358286285249</v>
       </c>
       <c r="J10">
-        <v>21.22139788107501</v>
+        <v>5.0558349727172116</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>2.965479250826295</v>
+        <v>1.1808109904719699</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>4.7301634672179162E-2</v>
+        <v>0.48200433559791828</v>
       </c>
       <c r="F11">
-        <v>0.21748938979219001</v>
+        <v>0.69426532075130931</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-6.9489178346477933</v>
+        <v>-4.6711208708325909E-2</v>
       </c>
       <c r="J11">
-        <v>54.567372343979493</v>
+        <v>6.469447910875366</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>1.6327579875137721</v>
+        <v>0.92480980870079033</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.65127038483239219</v>
+        <v>0.84498865306968574</v>
       </c>
       <c r="F12">
-        <v>0.80701324947759823</v>
-      </c>
-      <c r="G12" s="1">
-        <v>44934</v>
+        <v>0.91923264360535295</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.5936950311596849</v>
+        <v>-0.93787112037877651</v>
       </c>
       <c r="J12">
-        <v>17.67385941240423</v>
+        <v>3.5521681783881891</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>3.7873668747704738</v>
+        <v>39.249796883078517</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3.418032851025754</v>
+        <v>217.2708809972986</v>
       </c>
       <c r="F13">
-        <v>1.848792268218838</v>
+        <v>14.740111295281951</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
       </c>
       <c r="H13">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <v>0.51355518494097552</v>
+      </c>
+      <c r="J13">
+        <v>2.4343142485743319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>1.5171726124529139</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0.25060993999148301</v>
+      </c>
+      <c r="F14">
+        <v>0.500609568417827</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>-8.6394525391015858E-2</v>
+      </c>
+      <c r="J14">
+        <v>1.091821553985133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>3.6976881601299949</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>4.1525807090716551</v>
+      </c>
+      <c r="F15">
+        <v>2.0377881904338482</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="I13">
-        <v>-0.33422190665297619</v>
-      </c>
-      <c r="J13">
-        <v>1.8083044157659389</v>
+      <c r="I15">
+        <v>-1.6561054162758479E-2</v>
+      </c>
+      <c r="J15">
+        <v>1.8404946693552591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>29.697603778725</v>
+      </c>
+      <c r="C16">
+        <v>27.093595504760739</v>
+      </c>
+      <c r="D16">
+        <v>14.285714149475099</v>
+      </c>
+      <c r="E16">
+        <v>184.30379190272191</v>
+      </c>
+      <c r="F16">
+        <v>13.57585326610161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16">
+        <v>9.8522148132324219</v>
+      </c>
+      <c r="I16">
+        <v>0.9943875430516893</v>
+      </c>
+      <c r="J16">
+        <v>2.9235366739575812</v>
       </c>
     </row>
   </sheetData>

--- a/Data/statistics_results.xlsx
+++ b/Data/statistics_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\DataMohammed\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B97D809-5807-4E08-A40E-5F72C2333FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B5943C-2465-4874-B252-5C0DBDAE34D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,24 +130,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,15 +165,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,520 +498,526 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.19921875" style="5"/>
+    <col min="6" max="6" width="16.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.19921875" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>2.7762020828717038</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>0.69374296876209651</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>0.83291234158349248</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
         <v>-0.84815900205473838</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>4.2238062083046746</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>1.777088411256371</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>0.31461462735793522</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>0.56090518571139558</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>-3.2130142434026641</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>14.74165047676652</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>2.8007976955462</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>0.79773610466007538</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.89316073842286381</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
         <v>-0.38193465496902917</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>2.6216713178438988</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>6.5582391609424624</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>6.2548994254392722</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>2.5009796931281292</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>-0.66176965241710795</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>3.253014268622215</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>5.8571534086712456</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>6.2917517131312009</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>2.5083364433686319</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>-0.21133266332744349</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>2.4152113528664079</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>5.25969421670729</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>5.9269401044509653</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>2.4345307770597122</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>3</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>-3.619321140162586E-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>2.3957760446242649</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>1.216781150749686</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
         <v>0.57547254561601957</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.7585990677663792</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>-1.6512997480294851E-2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>5.5616420376559024</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>1.211980205332742</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
         <v>0.5492404203497584</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>0.74110756327928429</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>-2.8599224076157029E-4</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>5.7598751124209189</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>1.2829603368047859</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
         <v>0.59691083983608095</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.77260005166714874</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
         <v>0.17979358286285249</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>5.0558349727172116</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>1.1808109904719699</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.48200433559791828</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>0.69426532075130931</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>-4.6711208708325909E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>6.469447910875366</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>0.92480980870079033</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
         <v>0.84498865306968574</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>0.91923264360535295</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>-0.93787112037877651</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>3.5521681783881891</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>39.249796883078517</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>37</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>23</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>217.2708809972986</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>14.740111295281951</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>23</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>0.51355518494097552</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>2.4343142485743319</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>1.5171726124529139</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>0.25060993999148301</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>0.500609568417827</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
         <v>-8.6394525391015858E-2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <v>1.091821553985133</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>3.6976881601299949</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>5</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>4.1525807090716551</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>2.0377881904338482</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>3</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>-1.6561054162758479E-2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="4">
         <v>1.8404946693552591</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>29.697603778725</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>27.093595504760739</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>14.285714149475099</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>184.30379190272191</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>13.57585326610161</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>9.8522148132324219</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <v>0.9943875430516893</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="5">
         <v>2.9235366739575812</v>
       </c>
     </row>

--- a/Data/statistics_results.xlsx
+++ b/Data/statistics_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\DataMohammed\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B5943C-2465-4874-B252-5C0DBDAE34D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E02F2B-E9CD-4E15-A3F7-46EFB20FEF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
     <t>var</t>
   </si>
   <si>
-    <t>14.2857141494751 - 56.1576347351074</t>
+    <t>14.28 - 56.15</t>
   </si>
 </sst>
 </file>
@@ -184,13 +184,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +500,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -989,35 +991,35 @@
         <v>1.8404946693552591</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>29.697603778725</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>27.093595504760739</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>14.285714149475099</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>184.30379190272191</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>13.57585326610161</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>9.8522148132324219</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>0.9943875430516893</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>2.9235366739575812</v>
       </c>
     </row>
